--- a/torcms_dde/database/meta/info_tags.xlsx
+++ b/torcms_dde/database/meta/info_tags.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
   <si>
     <t xml:space="preserve">d</t>
   </si>
@@ -967,109 +967,112 @@
     <t xml:space="preserve">Collapse</t>
   </si>
   <si>
+    <t xml:space="preserve">ddexplosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgas_leak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas leak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpoisoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poisoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dradiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doil_spill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil spill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">td8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtransport_accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">droad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">td9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmiscelleanous_accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscelleanous accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddcollapse</t>
+  </si>
+  <si>
     <t xml:space="preserve">dexplosion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dgas_leak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas leak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpoisoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poisoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dradiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doil_spill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil spill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">td8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dtransport_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">droad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">td9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmiscelleanous_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscelleanous accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddcollapse</t>
   </si>
   <si>
     <t xml:space="preserve">ddfire</t>
@@ -1542,8 +1545,8 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3819,7 +3822,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>101</v>
@@ -3872,7 +3875,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>104</v>
@@ -3925,7 +3928,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>119</v>

--- a/torcms_dde/database/meta/info_tags.xlsx
+++ b/torcms_dde/database/meta/info_tags.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="171">
   <si>
     <t xml:space="preserve">d</t>
   </si>
@@ -784,301 +784,400 @@
     <t xml:space="preserve">td1</t>
   </si>
   <si>
-    <t xml:space="preserve">dgeophysical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geophysical</t>
+    <t xml:space="preserve">dhydrometeorological</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrometeorological hazards</t>
   </si>
   <si>
     <t xml:space="preserve">t01</t>
   </si>
   <si>
+    <t xml:space="preserve">dddrought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drought (Hydrological, Meteorological, Agricultural, Socio-economic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddflood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtyphoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typhoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddainstorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainstorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlow_temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsnow_storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhigh_temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsand-dust_storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand-dust storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddfog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhy_others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">td2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgeohazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geohazards</t>
+  </si>
+  <si>
     <t xml:space="preserve">dearthquake</t>
   </si>
   <si>
     <t xml:space="preserve">Earthquake</t>
   </si>
   <si>
-    <t xml:space="preserve">t02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmass_movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Movement (dry)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvolcanic_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volcanic activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">td2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmeteorological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meteorological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dextreme_temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extreme Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dstorm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storm</t>
+    <t xml:space="preserve">dvolcanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volcanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dddcollapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddlandslide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landslide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmudslide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mudslide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dground_collapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground collapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dground_subsidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground subsidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dground_fissuring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground fissuring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgeo_others</t>
   </si>
   <si>
     <t xml:space="preserve">td3</t>
   </si>
   <si>
-    <t xml:space="preserve">dhydrological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dflood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dlandslide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landslide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwave_action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wave action</t>
+    <t xml:space="preserve">dmaine_hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dstorm_tide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storm tide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docean_wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsea_ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtsunami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsunami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmaine_others</t>
   </si>
   <si>
     <t xml:space="preserve">td4</t>
   </si>
   <si>
-    <t xml:space="preserve">dclimatological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climatological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddrought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dglacial_lake_outburst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glacial Lake Outburst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwildfire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildfire</t>
+    <t xml:space="preserve">dbiological_hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dplant_pests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant pests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddisease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drodent_pest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent pest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dred_tide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red tide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwildfires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildfires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbio_others</t>
   </si>
   <si>
     <t xml:space="preserve">td5</t>
   </si>
   <si>
-    <t xml:space="preserve">dbiological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depidemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epidemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinsect_infestation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insect infestation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danimal_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal Accident</t>
+    <t xml:space="preserve">denvironmental_hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwater_soil_loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water and soil loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddesertification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desertification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsalinization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dstony_desertification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stony desertification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denvi_others</t>
   </si>
   <si>
     <t xml:space="preserve">td6</t>
   </si>
   <si>
-    <t xml:space="preserve">dextraterrestrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extraterrestrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimpact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dspace_weather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space weather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">td7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dindustrial_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dchemical_spill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical spill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcollapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddexplosion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dgas_leak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas leak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpoisoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poisoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dradiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doil_spill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil spill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">td8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dtransport_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">droad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">td9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmiscelleanous_accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscelleanous accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddcollapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dexplosion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddfire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddother</t>
+    <t xml:space="preserve">dtechnological_hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technological hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcbrne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBRNE (chemical, biological, radiation, nuclear, or explosion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinfrastructure_failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcyber_hazard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyber hazard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dindustrial_failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial failure / Non-compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtransportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtech_others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsocietal_hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Societal hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dconflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpost-conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbehavioural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behavioural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deconomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsoc_others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dddothers</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
@@ -1187,10 +1286,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1200,8 +1299,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,13 +1317,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1229,55 +1335,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFADB9CA"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
-        <bgColor rgb="FF808000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFA9D18E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
         <bgColor rgb="FF9DC3E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADB9CA"/>
-        <bgColor rgb="FF9DC3E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
   </fills>
@@ -1340,7 +1404,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1433,36 +1497,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1478,7 +1526,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1491,16 +1539,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFADB9CA"/>
+      <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF8FAADC"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1514,17 +1562,17 @@
       <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF9DC3E6"/>
-      <rgbColor rgb="FFF4B183"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFBF9000"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1545,14 +1593,14 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="57.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="5" style="1" width="9.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="1" width="9.23"/>
@@ -1901,14 +1949,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="14"/>
@@ -1916,533 +1964,290 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>54</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>56</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>58</v>
+      <c r="B10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>61</v>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="4"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>63</v>
+      <c r="B12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>65</v>
+      <c r="B13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>67</v>
+      <c r="B14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>70</v>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="4"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>72</v>
+      <c r="B16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>74</v>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+    </row>
+    <row r="17" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2486,16 +2291,17 @@
       <c r="V17" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="W17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>76</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -2540,15 +2346,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>79</v>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -2592,17 +2398,16 @@
       <c r="V19" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="W19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>81</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -2649,333 +2454,187 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="14"/>
-      <c r="U21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>85</v>
+        <v>53</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="14"/>
-      <c r="U22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>88</v>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="4"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
       <c r="T24" s="14"/>
-      <c r="U24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>95</v>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>97</v>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+    </row>
+    <row r="27" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -3019,16 +2678,17 @@
       <c r="V27" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -3075,13 +2735,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -3128,13 +2788,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>104</v>
+        <v>47</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -3181,119 +2841,71 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>107</v>
+        <v>50</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>110</v>
+        <v>53</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V32" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="27" t="s">
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+    </row>
+    <row r="33" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="C33" s="21" t="s">
         <v>113</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -3337,15 +2949,16 @@
       <c r="V33" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="W33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="23" t="s">
         <v>116</v>
       </c>
       <c r="E34" s="14"/>
@@ -3393,13 +3006,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="D35" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>119</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -3444,15 +3057,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -3496,229 +3109,132 @@
       <c r="V36" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="W36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V37" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>126</v>
+        <v>53</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V38" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>128</v>
+        <v>56</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
       <c r="T39" s="14"/>
-      <c r="U39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V39" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>130</v>
+        <v>59</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V40" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
     </row>
     <row r="41" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -3768,11 +3284,11 @@
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>99</v>
+      <c r="C42" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -3821,11 +3337,11 @@
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>101</v>
+      <c r="C43" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -3874,123 +3390,736 @@
       <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>136</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>104</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
       <c r="T44" s="14"/>
-      <c r="U44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V44" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>119</v>
+      <c r="D45" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
-      <c r="J45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S45" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
       <c r="T45" s="14"/>
-      <c r="U45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V45" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+    </row>
+    <row r="47" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+    </row>
+    <row r="55" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="W61" s="25"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
